--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/MLR_train.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/MLR_train.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1EDD1A-7DCE-4C24-B12A-E3F91A79419E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F621AC-E4FF-4858-A76A-99E0598B6417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/MLR_train.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/MLR_train.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F621AC-E4FF-4858-A76A-99E0598B6417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0460A790-6871-454E-92F8-EE28A3384969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>

--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/MLR_train.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/MLR_train.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0460A790-6871-454E-92F8-EE28A3384969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC2E23F-B848-46F8-BCF7-E7E73BD04F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/MLR_train.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/MLR_train.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC2E23F-B848-46F8-BCF7-E7E73BD04F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BDC820-DF7F-40F9-A345-527F6B4227C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Ones</t>
   </si>
@@ -12953,3899 +12953,3571 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>1.44596080068276</v>
       </c>
       <c r="B2" s="2">
-        <v>1.44596080068276</v>
+        <v>-0.90153978551972536</v>
       </c>
       <c r="C2" s="2">
-        <v>-0.90153978551972536</v>
+        <v>-1.9601900680751849</v>
       </c>
       <c r="D2" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.41543935385054631</v>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1.339101682079332</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.58549247349072453</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-0.32944370892019881</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.27283784113998311</v>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>-0.43743116470267202</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-1.479830108468233</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.32285483474179583</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.1355803676862482</v>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>-2.334180519913533</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-9.320430113455425E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-1.0252288221596599</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.54032629847258695</v>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>-1.893386655674389</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.1228602151319179</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.0192132488264837E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.39623349169160599</v>
+      </c>
+      <c r="K6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>-1.479307571086103</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-1.017197850109427</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-1.460094517934323</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.4378612123856952</v>
+      </c>
+      <c r="K7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>0.77809130941133042</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-1.099810753387785</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-1.612297511455455</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.3436362170279838</v>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>-1.0652284864978161</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-1.0006752694537551</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-0.32944370892019881</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.32598160610043481</v>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>-0.73129374086210119</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-9.320430113455425E-3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.77946381530519204</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.2402113415787728</v>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>4.3434869012757539E-2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.824686022666099</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.45331454347419481</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.32200415447643382</v>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0.36401222482304391</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-0.75283655961868035</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-0.43816013286386463</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4.2014490254010557</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.48334906025160063</v>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>-1.8666718760235319</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.147260215783561</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-0.30770042413146559</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.461085781829777</v>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>-1.479307571086103</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.58549247349072453</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-1.0252288221596599</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.49329591797033978</v>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0.85823564836390209</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-0.53804301109494868</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-0.13375414582160039</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.241716048530217</v>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>-1.5594519100386739</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-0.57108817240629206</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-0.19898400018779991</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.36264429202814291</v>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>-1.4125206219589601</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-5.8888172080470418E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.27936826516432961</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.33127820740370523</v>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1.0585964957453311</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-5.8888172080470418E-2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.17065184122066379</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.1802002790398953</v>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>-0.51757550365524363</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-1.3476494632228599</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.54028768262912741</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.16837363069491809</v>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0.61780263150618731</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8.9815053820574559E-2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.2795593654460551</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.12073305756367821</v>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>-1.1988023847521021</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.84985376398147117</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.21413841079813009</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.34428138121063961</v>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>0.2304383265687579</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-1.0006752694537551</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.73597724572772572</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>8.5249658396943789E-2</v>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>-0.59771984260781519</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.71767311873609785</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.17065184122066379</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.31204016245329591</v>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>-1.0117989271961021</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-1.1493784953548001</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-1.568810941877989</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.46699152881758682</v>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>-0.59771984260781519</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-0.53804301109494868</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-0.89476911342726073</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.35848095472399671</v>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>-1.1453728254503881</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.35417634431132122</v>
+      </c>
+      <c r="C26" s="2">
+        <v>-1.0252288221596599</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E26" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.4616143955453933</v>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1.312386902428474</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.99855698988251607</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.58377425220659374</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3.20772094861921</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.39530683388265692</v>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>-0.23707031732124301</v>
+      </c>
+      <c r="B28" s="2">
+        <v>8.9815053820574559E-2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.8664369544601247</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.16573946408704751</v>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2.247404190208476</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-5.8888172080470418E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-1.155688530892059</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.28809394330302751</v>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>-0.46414594435352918</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-2.8016365609219669</v>
+      </c>
+      <c r="C30" s="2">
+        <v>-1.3296348092019239</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.29851186849409028</v>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1.9936137835253329</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-0.2571591399485304</v>
+      </c>
+      <c r="C31" s="2">
+        <v>-4.5693842427231637</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3.20772094861921</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G31" s="2">
+        <v>-4.2014490254010557</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.72823830861420003</v>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1.672008936190035E-2</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-0.47195268847226202</v>
+      </c>
+      <c r="C32" s="2">
+        <v>-1.0252288221596599</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.34991953356708089</v>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>0.91166520766561643</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2.452544087581622</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.17065184122066379</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.40549389946223008</v>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>0.64451741115704442</v>
+      </c>
+      <c r="B34" s="2">
+        <v>-0.1249784947031571</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.32285483474179583</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E34" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4.2014490254010557</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.41846197157806081</v>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>-0.103496419066957</v>
+      </c>
+      <c r="B35" s="2">
+        <v>-5.8888172080470418E-2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-4.6781006666667783E-2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F35" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G35" s="2">
+        <v>-4.2014490254010557</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.12138765245917831</v>
+      </c>
+      <c r="K35" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>-0.26378509697210017</v>
+      </c>
+      <c r="B36" s="2">
+        <v>-9.320430113455425E-3</v>
+      </c>
+      <c r="C36" s="2">
+        <v>-1.242661670046991</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F36" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.46873044493790522</v>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>-1.479307571086103</v>
+      </c>
+      <c r="B37" s="2">
+        <v>-5.8888172080470418E-2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-1.0252288221596599</v>
+      </c>
+      <c r="D37" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E37" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F37" s="2">
+        <v>4.2014490254010557</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.69125944125727534</v>
+      </c>
+      <c r="K37" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>2.2874763596847618</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.20547311841027621</v>
+      </c>
+      <c r="C38" s="2">
+        <v>-4.6781006666667783E-2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3.20772094861921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.32604451926255867</v>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>0.2304383265687579</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.98203440922684448</v>
+      </c>
+      <c r="C39" s="2">
+        <v>-0.6555929807511961</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.44004573438121342</v>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>-9.9946902889568503E-3</v>
+      </c>
+      <c r="B40" s="2">
+        <v>-0.35629462388256039</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.12716527164319749</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E40" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.21616892618862399</v>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>-0.31721465627381462</v>
+      </c>
+      <c r="B41" s="2">
+        <v>-2.3720494638745029</v>
+      </c>
+      <c r="C41" s="2">
+        <v>-0.78605268948359497</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3.20772094861921</v>
+      </c>
+      <c r="E41" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F41" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.36583597036160043</v>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>-0.73129374086210119</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.58549247349072453</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.73597724572772572</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E42" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.23927007434897721</v>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>-0.18364075801952859</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.35417634431132122</v>
+      </c>
+      <c r="C43" s="2">
+        <v>-0.45990341765259768</v>
+      </c>
+      <c r="D43" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E43" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F43" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.34572219483862698</v>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>-0.93165458824353009</v>
+      </c>
+      <c r="B44" s="2">
+        <v>-0.53804301109494868</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.62726082178405995</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E44" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F44" s="2">
+        <v>4.2014490254010557</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.4275575801600271</v>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>0.71130436028418742</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-0.1249784947031571</v>
+      </c>
+      <c r="C45" s="2">
+        <v>-0.30770042413146559</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E45" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F45" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.25154625311513951</v>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>-2.080390113230389</v>
+      </c>
+      <c r="B46" s="2">
+        <v>-0.47195268847226202</v>
+      </c>
+      <c r="C46" s="2">
+        <v>-1.460094517934323</v>
+      </c>
+      <c r="D46" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E46" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F46" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.50368223300691828</v>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>-0.75800852051295831</v>
+      </c>
+      <c r="B47" s="2">
+        <v>-9.320430113455425E-3</v>
+      </c>
+      <c r="C47" s="2">
         <v>-1.9601900680751849</v>
       </c>
-      <c r="E2" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G2" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.41543935385054631</v>
-      </c>
-      <c r="L2" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1.339101682079332</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="D47" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E47" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F47" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.5343192244714956</v>
+      </c>
+      <c r="K47" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>-0.23707031732124301</v>
+      </c>
+      <c r="B48" s="2">
+        <v>-0.53804301109494868</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1.0186399479812569</v>
+      </c>
+      <c r="D48" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E48" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F48" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.10402001303626569</v>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>-3.6709469939814048E-2</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.99855698988251607</v>
+      </c>
+      <c r="C49" s="2">
+        <v>-0.1120108610328672</v>
+      </c>
+      <c r="D49" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E49" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F49" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.33955490334769961</v>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>-1.5594519100386739</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2.0064344098784881</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1.583965352488319</v>
+      </c>
+      <c r="D50" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E50" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F50" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.27049338496331821</v>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>-0.31721465627381462</v>
+      </c>
+      <c r="B51" s="2">
+        <v>-9.320430113455425E-3</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1.1708429415023891</v>
+      </c>
+      <c r="D51" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F51" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.17196210916635571</v>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>-0.78472330016381553</v>
+      </c>
+      <c r="B52" s="2">
+        <v>7.3292473164902894E-2</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.27936826516432961</v>
+      </c>
+      <c r="D52" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E52" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F52" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0.26348851917387017</v>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>1.526105139635332</v>
+      </c>
+      <c r="B53" s="2">
+        <v>-9.320430113455425E-3</v>
+      </c>
+      <c r="C53" s="2">
+        <v>-0.74256611990612875</v>
+      </c>
+      <c r="D53" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F53" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.32150339973199221</v>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>-0.103496419066957</v>
+      </c>
+      <c r="B54" s="2">
+        <v>-5.8888172080470418E-2</v>
+      </c>
+      <c r="C54" s="2">
+        <v>-4.6781006666667783E-2</v>
+      </c>
+      <c r="D54" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F54" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G54" s="2">
+        <v>-4.2014490254010557</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.12138765245917831</v>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>-0.51757550365524363</v>
+      </c>
+      <c r="B55" s="2">
+        <v>-1.099810753387785</v>
+      </c>
+      <c r="C55" s="2">
+        <v>-4.6781006666667783E-2</v>
+      </c>
+      <c r="D55" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E55" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F55" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.21116803221457511</v>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>2.5679815460187632</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.84985376398147117</v>
+      </c>
+      <c r="C56" s="2">
+        <v>-1.699270650610387</v>
+      </c>
+      <c r="D56" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F56" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.44917968999573438</v>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>-9.0139029241528446E-2</v>
+      </c>
+      <c r="B57" s="2">
+        <v>-5.8888172080470418E-2</v>
+      </c>
+      <c r="C57" s="2">
+        <v>-6.8524291455400926E-2</v>
+      </c>
+      <c r="D57" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F57" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G57" s="2">
+        <v>-4.2014490254010557</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0.1234482788709851</v>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>0.68458958063333031</v>
+      </c>
+      <c r="B58" s="2">
+        <v>-0.47195268847226202</v>
+      </c>
+      <c r="C58" s="2">
+        <v>-1.3296348092019239</v>
+      </c>
+      <c r="D58" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F58" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0.40280000228629631</v>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>0.92502259749104498</v>
+      </c>
+      <c r="B59" s="2">
+        <v>-1.711146237647637</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.1054219868544643</v>
+      </c>
+      <c r="D59" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F59" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G59" s="2">
+        <v>-4.2014490254010557</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>-5.9197555768042587E-2</v>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>-1.0652284864978161</v>
+      </c>
+      <c r="B60" s="2">
+        <v>7.3292473164902894E-2</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.27936826516432961</v>
+      </c>
+      <c r="D60" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E60" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F60" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.27684192931668222</v>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>-0.34392943592467179</v>
+      </c>
+      <c r="B61" s="2">
+        <v>-1.1493784953548001</v>
+      </c>
+      <c r="C61" s="2">
+        <v>-0.19898400018779991</v>
+      </c>
+      <c r="D61" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E61" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F61" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.2183947415732195</v>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>-0.59771984260781519</v>
+      </c>
+      <c r="B62" s="2">
+        <v>-1.4467849471568901</v>
+      </c>
+      <c r="C62" s="2">
+        <v>-1.155688530892059</v>
+      </c>
+      <c r="D62" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E62" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F62" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0.3288280412219563</v>
+      </c>
+      <c r="K62" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>-1.1453728254503881</v>
+      </c>
+      <c r="B63" s="2">
+        <v>-1.017197850109427</v>
+      </c>
+      <c r="C63" s="2">
+        <v>-1.3296348092019239</v>
+      </c>
+      <c r="D63" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E63" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F63" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0.40578527703737</v>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>9.6864428314471937E-2</v>
+      </c>
+      <c r="B64" s="2">
         <v>0.58549247349072453</v>
       </c>
-      <c r="D3" s="2">
-        <v>-0.32944370892019881</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G3" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.27283784113998311</v>
-      </c>
-      <c r="L3" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="C64" s="2">
+        <v>-0.37293027849766508</v>
+      </c>
+      <c r="D64" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E64" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F64" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0.33736737794298438</v>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>-0.78472330016381553</v>
+      </c>
+      <c r="B65" s="2">
+        <v>-1.3476494632228599</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.73597724572772572</v>
+      </c>
+      <c r="D65" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E65" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F65" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0.1098993771980557</v>
+      </c>
+      <c r="K65" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>0.88495042801475921</v>
+      </c>
+      <c r="B66" s="2">
+        <v>-1.826804302237339</v>
+      </c>
+      <c r="C66" s="2">
+        <v>-0.30770042413146559</v>
+      </c>
+      <c r="D66" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F66" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0.17407351730228121</v>
+      </c>
+      <c r="K66" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>-0.89158241876724431</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.3046086023443062</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.1054219868544643</v>
+      </c>
+      <c r="D67" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F67" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G67" s="2">
+        <v>-4.2014490254010557</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0.16483323480695869</v>
+      </c>
+      <c r="K67" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>-0.54429028330610074</v>
+      </c>
+      <c r="B68" s="2">
+        <v>-9.320430113455425E-3</v>
+      </c>
+      <c r="C68" s="2">
+        <v>-0.8295392590610613</v>
+      </c>
+      <c r="D68" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F68" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0.43085029646051037</v>
+      </c>
+      <c r="K68" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>9.6864428314471937E-2</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.84985376398147117</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.67074739136152628</v>
+      </c>
+      <c r="D69" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F69" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0.2728980382923033</v>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>9.6864428314471937E-2</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1.5603247321753531</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1.779654915586917</v>
+      </c>
+      <c r="D70" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F70" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G70" s="2">
+        <v>-4.2014490254010557</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>-4.1645176879909762E-3</v>
+      </c>
+      <c r="K70" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>-1.0117989271961021</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.33765376365564947</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.45331454347419481</v>
+      </c>
+      <c r="D71" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E71" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F71" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0.27076594718435298</v>
+      </c>
+      <c r="K71" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>-0.23707031732124301</v>
+      </c>
+      <c r="B72" s="2">
+        <v>-5.8888172080470418E-2</v>
+      </c>
+      <c r="C72" s="2">
+        <v>-0.89476911342726073</v>
+      </c>
+      <c r="D72" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E72" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F72" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0.37400896754464552</v>
+      </c>
+      <c r="K72" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>-0.49086072400438641</v>
+      </c>
+      <c r="B73" s="2">
+        <v>-0.2571591399485304</v>
+      </c>
+      <c r="C73" s="2">
+        <v>-1.3296348092019239</v>
+      </c>
+      <c r="D73" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F73" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0.47341428331194563</v>
+      </c>
+      <c r="K73" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>0.44415656377561552</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.83333118332579947</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1.0186399479812569</v>
+      </c>
+      <c r="D74" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E74" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F74" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0.1651704643912964</v>
+      </c>
+      <c r="K74" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>-1.3323762830063881</v>
+      </c>
+      <c r="B75" s="2">
+        <v>-0.42238494650524699</v>
+      </c>
+      <c r="C75" s="2">
+        <v>-0.43816013286386463</v>
+      </c>
+      <c r="D75" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E75" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F75" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0.34471990976807282</v>
+      </c>
+      <c r="K75" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>0.53765829255361564</v>
+      </c>
+      <c r="B76" s="2">
+        <v>-1.1493784953548001</v>
+      </c>
+      <c r="C76" s="2">
+        <v>-0.30770042413146559</v>
+      </c>
+      <c r="D76" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E76" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F76" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0.1899093965507519</v>
+      </c>
+      <c r="K76" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>0.64451741115704442</v>
+      </c>
+      <c r="B77" s="2">
+        <v>-0.88501720486405366</v>
+      </c>
+      <c r="C77" s="2">
+        <v>-0.13375414582160039</v>
+      </c>
+      <c r="D77" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E77" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F77" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0.18128990772455369</v>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>-0.67786418156038675</v>
+      </c>
+      <c r="B78" s="2">
+        <v>-0.1249784947031571</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.32285483474179583</v>
+      </c>
+      <c r="D78" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F78" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0.28640209688152601</v>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>-0.31721465627381462</v>
+      </c>
+      <c r="B79" s="2">
+        <v>-0.53804301109494868</v>
+      </c>
+      <c r="C79" s="2">
+        <v>-0.22072728497653299</v>
+      </c>
+      <c r="D79" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E79" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F79" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0.26153594893768939</v>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>-1.1988023847521021</v>
+      </c>
+      <c r="B80" s="2">
+        <v>-1.3476494632228599</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.27936826516432961</v>
+      </c>
+      <c r="D80" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E80" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F80" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H80" s="2">
+        <v>1</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0.1862381188662949</v>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>-0.103496419066957</v>
+      </c>
+      <c r="B81" s="2">
+        <v>-0.6537010756846503</v>
+      </c>
+      <c r="C81" s="2">
+        <v>-0.89476911342726073</v>
+      </c>
+      <c r="D81" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E81" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F81" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0.32706121501157598</v>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>0.31058266552132952</v>
+      </c>
+      <c r="B82" s="2">
+        <v>-0.6537010756846503</v>
+      </c>
+      <c r="C82" s="2">
+        <v>-0.78605268948359497</v>
+      </c>
+      <c r="D82" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F82" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0.34078978190646231</v>
+      </c>
+      <c r="K82" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>0.72466175010961609</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0.98203440922684448</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2.779846015868642</v>
+      </c>
+      <c r="D83" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E83" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F83" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>-5.645244920911352E-2</v>
+      </c>
+      <c r="K83" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>-0.46414594435352918</v>
+      </c>
+      <c r="B84" s="2">
+        <v>-0.68674623699599369</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.12716527164319749</v>
+      </c>
+      <c r="D84" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E84" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F84" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0.21523929653184509</v>
+      </c>
+      <c r="K84" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>-0.23707031732124301</v>
+      </c>
+      <c r="B85" s="2">
+        <v>-1.5624430117465919</v>
+      </c>
+      <c r="C85" s="2">
+        <v>8.367870206573115E-2</v>
+      </c>
+      <c r="D85" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F85" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I85" s="2">
+        <v>1</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0.19698965158232859</v>
+      </c>
+      <c r="K85" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>-0.86486763911638709</v>
+      </c>
+      <c r="B86" s="2">
+        <v>-0.2571591399485304</v>
+      </c>
+      <c r="C86" s="2">
+        <v>-0.37293027849766508</v>
+      </c>
+      <c r="D86" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F86" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0.37257269441697061</v>
+      </c>
+      <c r="K86" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>0.51094351290275852</v>
+      </c>
+      <c r="B87" s="2">
+        <v>-2.2729139799404741</v>
+      </c>
+      <c r="C87" s="2">
+        <v>-0.43816013286386463</v>
+      </c>
+      <c r="D87" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E87" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F87" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0.1306920841234695</v>
+      </c>
+      <c r="K87" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>-1.2789467237046741</v>
+      </c>
+      <c r="B88" s="2">
+        <v>8.9815053820574559E-2</v>
+      </c>
+      <c r="C88" s="2">
+        <v>-2.2863393399061831</v>
+      </c>
+      <c r="D88" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E88" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F88" s="2">
+        <v>4.2014490254010557</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I88" s="2">
+        <v>1</v>
+      </c>
+      <c r="J88" s="2">
+        <v>0.84826571655076033</v>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>1.1387408346979031</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1.444666667585651</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1.692681776431985</v>
+      </c>
+      <c r="D89" s="2">
+        <v>3.20772094861921</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F89" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I89" s="2">
+        <v>1</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0.2964933126375528</v>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>0.15029398761618629</v>
+      </c>
+      <c r="B90" s="2">
+        <v>-1.826804302237339</v>
+      </c>
+      <c r="C90" s="2">
+        <v>-1.9601900680751849</v>
+      </c>
+      <c r="D90" s="2">
+        <v>3.20772094861921</v>
+      </c>
+      <c r="E90" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F90" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0.52639802371024258</v>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>-1.893386655674389</v>
+      </c>
+      <c r="B91" s="2">
+        <v>-9.320430113455425E-3</v>
+      </c>
+      <c r="C91" s="2">
+        <v>-1.0252288221596599</v>
+      </c>
+      <c r="D91" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E91" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F91" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0.47241910904942719</v>
+      </c>
+      <c r="K91" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>-1.0117989271961021</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.58549247349072453</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.75772053051645893</v>
+      </c>
+      <c r="D92" s="2">
+        <v>3.20772094861921</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F92" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0.4561905546904329</v>
+      </c>
+      <c r="K92" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>-1.1988023847521021</v>
+      </c>
+      <c r="B93" s="2">
+        <v>-1.3476494632228599</v>
+      </c>
+      <c r="C93" s="2">
+        <v>-0.6555929807511961</v>
+      </c>
+      <c r="D93" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E93" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F93" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I93" s="2">
+        <v>1</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0.30218775153307859</v>
+      </c>
+      <c r="K93" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>0.99180954661818799</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.73419569939176943</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.21413841079813009</v>
+      </c>
+      <c r="D94" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F94" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0.27902856316662028</v>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
         <v>-0.43743116470267202</v>
       </c>
-      <c r="C4" s="2">
-        <v>-1.479830108468233</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.32285483474179583</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G4" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.1355803676862482</v>
-      </c>
-      <c r="L4" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>-2.334180519913533</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-9.320430113455425E-3</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B95" s="2">
+        <v>4.0247311853559571E-2</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.54028768262912741</v>
+      </c>
+      <c r="D95" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F95" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I95" s="2">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0.25926600418370782</v>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>0.72466175010961609</v>
+      </c>
+      <c r="B96" s="2">
+        <v>-0.15802365601450041</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1.3665325046009871</v>
+      </c>
+      <c r="D96" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E96" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F96" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
+        <v>4.1024695220104657E-2</v>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>0.2304383265687579</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.35417634431132122</v>
+      </c>
+      <c r="C97" s="2">
+        <v>-0.63384969596246288</v>
+      </c>
+      <c r="D97" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E97" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F97" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0.34758204264333498</v>
+      </c>
+      <c r="K97" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>0.64451741115704442</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.98203440922684448</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.45331454347419481</v>
+      </c>
+      <c r="D98" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E98" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F98" s="2">
+        <v>4.2014490254010557</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
+      <c r="I98" s="2">
+        <v>1</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0.47782356552454441</v>
+      </c>
+      <c r="K98" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>0.67123219080790164</v>
+      </c>
+      <c r="B99" s="2">
+        <v>8.9815053820574559E-2</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0.38808468910799532</v>
+      </c>
+      <c r="D99" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E99" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F99" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I99" s="2">
+        <v>0</v>
+      </c>
+      <c r="J99" s="2">
+        <v>0.18182291816730409</v>
+      </c>
+      <c r="K99" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>0.2304383265687579</v>
+      </c>
+      <c r="B100" s="2">
+        <v>-1.24851397928883</v>
+      </c>
+      <c r="C100" s="2">
+        <v>6.1935417276997987E-2</v>
+      </c>
+      <c r="D100" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E100" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F100" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I100" s="2">
+        <v>0</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0.15192917662444019</v>
+      </c>
+      <c r="K100" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>0.64451741115704442</v>
+      </c>
+      <c r="B101" s="2">
+        <v>-0.1249784947031571</v>
+      </c>
+      <c r="C101" s="2">
+        <v>-4.6781006666667783E-2</v>
+      </c>
+      <c r="D101" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E101" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F101" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I101" s="2">
+        <v>0</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0.22236759945918719</v>
+      </c>
+      <c r="K101" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>1.1387408346979031</v>
+      </c>
+      <c r="B102" s="2">
+        <v>-0.47195268847226202</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0.49680111305166108</v>
+      </c>
+      <c r="D102" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F102" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0.1546739362253908</v>
+      </c>
+      <c r="K102" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>1.1387408346979031</v>
+      </c>
+      <c r="B103" s="2">
+        <v>-0.75283655961868035</v>
+      </c>
+      <c r="C103" s="2">
+        <v>-0.43816013286386463</v>
+      </c>
+      <c r="D103" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E103" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F103" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I103" s="2">
+        <v>0</v>
+      </c>
+      <c r="J103" s="2">
+        <v>0.20453328862196851</v>
+      </c>
+      <c r="K103" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>-0.2904998766229574</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1.3124860223402779</v>
+      </c>
+      <c r="C104" s="2">
         <v>-1.0252288221596599</v>
       </c>
-      <c r="E5" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.54032629847258695</v>
-      </c>
-      <c r="L5" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-1.893386655674389</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.1228602151319179</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4.0192132488264837E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.39623349169160599</v>
-      </c>
-      <c r="L6" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-1.479307571086103</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-1.017197850109427</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-1.460094517934323</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.4378612123856952</v>
-      </c>
-      <c r="L7" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.77809130941133042</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-1.099810753387785</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-1.612297511455455</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G8" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.3436362170279838</v>
-      </c>
-      <c r="L8" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2">
-        <v>-1.0652284864978161</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-1.0006752694537551</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-0.32944370892019881</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G9" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.32598160610043481</v>
-      </c>
-      <c r="L9" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>-0.73129374086210119</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-9.320430113455425E-3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.77946381530519204</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G10" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.2402113415787728</v>
-      </c>
-      <c r="L10" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4.3434869012757539E-2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.824686022666099</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.45331454347419481</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G11" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.32200415447643382</v>
-      </c>
-      <c r="L11" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.36401222482304391</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-0.75283655961868035</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-0.43816013286386463</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G12" s="2">
-        <v>4.2014490254010557</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.48334906025160063</v>
-      </c>
-      <c r="L12" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2">
-        <v>-1.8666718760235319</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.147260215783561</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-0.30770042413146559</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G13" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0.461085781829777</v>
-      </c>
-      <c r="L13" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2">
-        <v>-1.479307571086103</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.58549247349072453</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-1.0252288221596599</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G14" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.49329591797033978</v>
-      </c>
-      <c r="L14" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.85823564836390209</v>
-      </c>
-      <c r="C15" s="2">
-        <v>-0.53804301109494868</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-0.13375414582160039</v>
-      </c>
-      <c r="E15" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G15" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.241716048530217</v>
-      </c>
-      <c r="L15" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2">
-        <v>-1.5594519100386739</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="D104" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F104" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0</v>
+      </c>
+      <c r="I104" s="2">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2">
+        <v>0.53323491365075937</v>
+      </c>
+      <c r="K104" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>-1.6930258082929599</v>
+      </c>
+      <c r="B105" s="2">
+        <v>-0.88501720486405366</v>
+      </c>
+      <c r="C105" s="2">
+        <v>-0.89476911342726073</v>
+      </c>
+      <c r="D105" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E105" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F105" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0</v>
+      </c>
+      <c r="I105" s="2">
+        <v>1</v>
+      </c>
+      <c r="J105" s="2">
+        <v>0.386945933565912</v>
+      </c>
+      <c r="K105" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>-1.1988023847521021</v>
+      </c>
+      <c r="B106" s="2">
         <v>-0.57108817240629206</v>
       </c>
-      <c r="D16" s="2">
-        <v>-0.19898400018779991</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G16" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.36264429202814291</v>
-      </c>
-      <c r="L16" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2">
-        <v>-1.4125206219589601</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-5.8888172080470418E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.27936826516432961</v>
-      </c>
-      <c r="E17" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G17" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.33127820740370523</v>
-      </c>
-      <c r="L17" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1.0585964957453311</v>
-      </c>
-      <c r="C18" s="2">
-        <v>-5.8888172080470418E-2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.17065184122066379</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G18" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.1802002790398953</v>
-      </c>
-      <c r="L18" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2">
-        <v>-0.51757550365524363</v>
-      </c>
-      <c r="C19" s="2">
-        <v>-1.3476494632228599</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.54028768262912741</v>
-      </c>
-      <c r="E19" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G19" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.16837363069491809</v>
-      </c>
-      <c r="L19" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.61780263150618731</v>
-      </c>
-      <c r="C20" s="2">
-        <v>8.9815053820574559E-2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.2795593654460551</v>
-      </c>
-      <c r="E20" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G20" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.12073305756367821</v>
-      </c>
-      <c r="L20" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2">
-        <v>-1.1988023847521021</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.84985376398147117</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.21413841079813009</v>
-      </c>
-      <c r="E21" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F21" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G21" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.34428138121063961</v>
-      </c>
-      <c r="L21" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.2304383265687579</v>
-      </c>
-      <c r="C22" s="2">
-        <v>-1.0006752694537551</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.73597724572772572</v>
-      </c>
-      <c r="E22" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F22" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G22" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
-        <v>8.5249658396943789E-2</v>
-      </c>
-      <c r="L22" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>-0.59771984260781519</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="C106" s="2">
+        <v>-1.568810941877989</v>
+      </c>
+      <c r="D106" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F106" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I106" s="2">
+        <v>1</v>
+      </c>
+      <c r="J106" s="2">
+        <v>0.51535531621679198</v>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>-7.6781639416099848E-2</v>
+      </c>
+      <c r="B107" s="2">
+        <v>-2.008552689449727</v>
+      </c>
+      <c r="C107" s="2">
+        <v>-2.003676637652652</v>
+      </c>
+      <c r="D107" s="2">
+        <v>3.20772094861921</v>
+      </c>
+      <c r="E107" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F107" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I107" s="2">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2">
+        <v>0.53019874322466798</v>
+      </c>
+      <c r="K107" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>-0.65114940190952952</v>
+      </c>
+      <c r="B108" s="2">
         <v>0.71767311873609785</v>
       </c>
-      <c r="D23" s="2">
-        <v>0.17065184122066379</v>
-      </c>
-      <c r="E23" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F23" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G23" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0.31204016245329591</v>
-      </c>
-      <c r="L23" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="C108" s="2">
+        <v>1.1708429415023891</v>
+      </c>
+      <c r="D108" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E108" s="2">
+        <v>-0.81016705460704608</v>
+      </c>
+      <c r="F108" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G108" s="2">
+        <v>0.23801312212863099</v>
+      </c>
+      <c r="I108" s="2">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2">
+        <v>0.190544527224559</v>
+      </c>
+      <c r="K108" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
         <v>-1.0117989271961021</v>
       </c>
-      <c r="C24" s="2">
-        <v>-1.1493784953548001</v>
-      </c>
-      <c r="D24" s="2">
-        <v>-1.568810941877989</v>
-      </c>
-      <c r="E24" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G24" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0.46699152881758682</v>
-      </c>
-      <c r="L24" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2">
-        <v>-0.59771984260781519</v>
-      </c>
-      <c r="C25" s="2">
-        <v>-0.53804301109494868</v>
-      </c>
-      <c r="D25" s="2">
-        <v>-0.89476911342726073</v>
-      </c>
-      <c r="E25" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F25" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G25" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0.35848095472399671</v>
-      </c>
-      <c r="L25" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <v>-1.1453728254503881</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.35417634431132122</v>
-      </c>
-      <c r="D26" s="2">
-        <v>-1.0252288221596599</v>
-      </c>
-      <c r="E26" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F26" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G26" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0.4616143955453933</v>
-      </c>
-      <c r="L26" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1.312386902428474</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.99855698988251607</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.58377425220659374</v>
-      </c>
-      <c r="E27" s="2">
-        <v>3.20772094861921</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G27" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0.39530683388265692</v>
-      </c>
-      <c r="L27" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2">
-        <v>-0.23707031732124301</v>
-      </c>
-      <c r="C28" s="2">
-        <v>8.9815053820574559E-2</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.8664369544601247</v>
-      </c>
-      <c r="E28" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F28" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G28" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0.16573946408704751</v>
-      </c>
-      <c r="L28" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2.247404190208476</v>
-      </c>
-      <c r="C29" s="2">
-        <v>-5.8888172080470418E-2</v>
-      </c>
-      <c r="D29" s="2">
-        <v>-1.155688530892059</v>
-      </c>
-      <c r="E29" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F29" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G29" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0.28809394330302751</v>
-      </c>
-      <c r="L29" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2">
-        <v>-0.46414594435352918</v>
-      </c>
-      <c r="C30" s="2">
-        <v>-2.8016365609219669</v>
-      </c>
-      <c r="D30" s="2">
-        <v>-1.3296348092019239</v>
-      </c>
-      <c r="E30" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G30" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0.29851186849409028</v>
-      </c>
-      <c r="L30" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>0</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1.9936137835253329</v>
-      </c>
-      <c r="C31" s="2">
-        <v>-0.2571591399485304</v>
-      </c>
-      <c r="D31" s="2">
-        <v>-4.5693842427231637</v>
-      </c>
-      <c r="E31" s="2">
-        <v>3.20772094861921</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G31" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="B109" s="2">
+        <v>0.66810537676908277</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1.410019074178454</v>
+      </c>
+      <c r="D109" s="2">
+        <v>-0.31174781597833762</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1.234313336136617</v>
+      </c>
+      <c r="F109" s="2">
+        <v>-0.23801312212863121</v>
+      </c>
+      <c r="G109" s="2">
         <v>-4.2014490254010557</v>
       </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0.72823830861420003</v>
-      </c>
-      <c r="L31" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1.672008936190035E-2</v>
-      </c>
-      <c r="C32" s="2">
-        <v>-0.47195268847226202</v>
-      </c>
-      <c r="D32" s="2">
-        <v>-1.0252288221596599</v>
-      </c>
-      <c r="E32" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F32" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G32" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0.34991953356708089</v>
-      </c>
-      <c r="L32" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0.91166520766561643</v>
-      </c>
-      <c r="C33" s="2">
-        <v>2.452544087581622</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.17065184122066379</v>
-      </c>
-      <c r="E33" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G33" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0.40549389946223008</v>
-      </c>
-      <c r="L33" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>0</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.64451741115704442</v>
-      </c>
-      <c r="C34" s="2">
-        <v>-0.1249784947031571</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0.32285483474179583</v>
-      </c>
-      <c r="E34" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F34" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G34" s="2">
-        <v>4.2014490254010557</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
-        <v>0.41846197157806081</v>
-      </c>
-      <c r="L34" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2">
-        <v>-0.103496419066957</v>
-      </c>
-      <c r="C35" s="2">
-        <v>-5.8888172080470418E-2</v>
-      </c>
-      <c r="D35" s="2">
-        <v>-4.6781006666667783E-2</v>
-      </c>
-      <c r="E35" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G35" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H35" s="2">
-        <v>-4.2014490254010557</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0.12138765245917831</v>
-      </c>
-      <c r="L35" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2">
-        <v>-0.26378509697210017</v>
-      </c>
-      <c r="C36" s="2">
-        <v>-9.320430113455425E-3</v>
-      </c>
-      <c r="D36" s="2">
-        <v>-1.242661670046991</v>
-      </c>
-      <c r="E36" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G36" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J36" s="2">
-        <v>1</v>
-      </c>
-      <c r="K36" s="2">
-        <v>0.46873044493790522</v>
-      </c>
-      <c r="L36" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2">
-        <v>-1.479307571086103</v>
-      </c>
-      <c r="C37" s="2">
-        <v>-5.8888172080470418E-2</v>
-      </c>
-      <c r="D37" s="2">
-        <v>-1.0252288221596599</v>
-      </c>
-      <c r="E37" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F37" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G37" s="2">
-        <v>4.2014490254010557</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0.69125944125727534</v>
-      </c>
-      <c r="L37" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>0</v>
-      </c>
-      <c r="B38" s="2">
-        <v>2.2874763596847618</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.20547311841027621</v>
-      </c>
-      <c r="D38" s="2">
-        <v>-4.6781006666667783E-2</v>
-      </c>
-      <c r="E38" s="2">
-        <v>3.20772094861921</v>
-      </c>
-      <c r="F38" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G38" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J38" s="2">
-        <v>1</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0.32604451926255867</v>
-      </c>
-      <c r="L38" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.2304383265687579</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.98203440922684448</v>
-      </c>
-      <c r="D39" s="2">
-        <v>-0.6555929807511961</v>
-      </c>
-      <c r="E39" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G39" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2">
-        <v>1</v>
-      </c>
-      <c r="K39" s="2">
-        <v>0.44004573438121342</v>
-      </c>
-      <c r="L39" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>0</v>
-      </c>
-      <c r="B40" s="2">
-        <v>-9.9946902889568503E-3</v>
-      </c>
-      <c r="C40" s="2">
-        <v>-0.35629462388256039</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.12716527164319749</v>
-      </c>
-      <c r="E40" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F40" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G40" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2">
-        <v>0.21616892618862399</v>
-      </c>
-      <c r="L40" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>0</v>
-      </c>
-      <c r="B41" s="2">
-        <v>-0.31721465627381462</v>
-      </c>
-      <c r="C41" s="2">
-        <v>-2.3720494638745029</v>
-      </c>
-      <c r="D41" s="2">
-        <v>-0.78605268948359497</v>
-      </c>
-      <c r="E41" s="2">
-        <v>3.20772094861921</v>
-      </c>
-      <c r="F41" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G41" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0.36583597036160043</v>
-      </c>
-      <c r="L41" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>0</v>
-      </c>
-      <c r="B42" s="2">
-        <v>-0.73129374086210119</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.58549247349072453</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.73597724572772572</v>
-      </c>
-      <c r="E42" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F42" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G42" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0.23927007434897721</v>
-      </c>
-      <c r="L42" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>0</v>
-      </c>
-      <c r="B43" s="2">
-        <v>-0.18364075801952859</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.35417634431132122</v>
-      </c>
-      <c r="D43" s="2">
-        <v>-0.45990341765259768</v>
-      </c>
-      <c r="E43" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F43" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G43" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0.34572219483862698</v>
-      </c>
-      <c r="L43" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>0</v>
-      </c>
-      <c r="B44" s="2">
-        <v>-0.93165458824353009</v>
-      </c>
-      <c r="C44" s="2">
-        <v>-0.53804301109494868</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0.62726082178405995</v>
-      </c>
-      <c r="E44" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F44" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G44" s="2">
-        <v>4.2014490254010557</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0.4275575801600271</v>
-      </c>
-      <c r="L44" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>0</v>
-      </c>
-      <c r="B45" s="2">
-        <v>0.71130436028418742</v>
-      </c>
-      <c r="C45" s="2">
-        <v>-0.1249784947031571</v>
-      </c>
-      <c r="D45" s="2">
-        <v>-0.30770042413146559</v>
-      </c>
-      <c r="E45" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F45" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G45" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0.25154625311513951</v>
-      </c>
-      <c r="L45" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>0</v>
-      </c>
-      <c r="B46" s="2">
-        <v>-2.080390113230389</v>
-      </c>
-      <c r="C46" s="2">
-        <v>-0.47195268847226202</v>
-      </c>
-      <c r="D46" s="2">
-        <v>-1.460094517934323</v>
-      </c>
-      <c r="E46" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F46" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G46" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0.50368223300691828</v>
-      </c>
-      <c r="L46" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2">
-        <v>-0.75800852051295831</v>
-      </c>
-      <c r="C47" s="2">
-        <v>-9.320430113455425E-3</v>
-      </c>
-      <c r="D47" s="2">
-        <v>-1.9601900680751849</v>
-      </c>
-      <c r="E47" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F47" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G47" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0.5343192244714956</v>
-      </c>
-      <c r="L47" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>0</v>
-      </c>
-      <c r="B48" s="2">
-        <v>-0.23707031732124301</v>
-      </c>
-      <c r="C48" s="2">
-        <v>-0.53804301109494868</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1.0186399479812569</v>
-      </c>
-      <c r="E48" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F48" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G48" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I48" s="2">
-        <v>1</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0.10402001303626569</v>
-      </c>
-      <c r="L48" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2">
-        <v>-3.6709469939814048E-2</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.99855698988251607</v>
-      </c>
-      <c r="D49" s="2">
-        <v>-0.1120108610328672</v>
-      </c>
-      <c r="E49" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F49" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G49" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J49" s="2">
-        <v>0</v>
-      </c>
-      <c r="K49" s="2">
-        <v>0.33955490334769961</v>
-      </c>
-      <c r="L49" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>0</v>
-      </c>
-      <c r="B50" s="2">
-        <v>-1.5594519100386739</v>
-      </c>
-      <c r="C50" s="2">
-        <v>2.0064344098784881</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1.583965352488319</v>
-      </c>
-      <c r="E50" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F50" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G50" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0.27049338496331821</v>
-      </c>
-      <c r="L50" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>0</v>
-      </c>
-      <c r="B51" s="2">
-        <v>-0.31721465627381462</v>
-      </c>
-      <c r="C51" s="2">
-        <v>-9.320430113455425E-3</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1.1708429415023891</v>
-      </c>
-      <c r="E51" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F51" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G51" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J51" s="2">
-        <v>1</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0.17196210916635571</v>
-      </c>
-      <c r="L51" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2">
-        <v>-0.78472330016381553</v>
-      </c>
-      <c r="C52" s="2">
-        <v>7.3292473164902894E-2</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0.27936826516432961</v>
-      </c>
-      <c r="E52" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F52" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G52" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H52" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J52" s="2">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2">
-        <v>0.26348851917387017</v>
-      </c>
-      <c r="L52" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>0</v>
-      </c>
-      <c r="B53" s="2">
-        <v>1.526105139635332</v>
-      </c>
-      <c r="C53" s="2">
-        <v>-9.320430113455425E-3</v>
-      </c>
-      <c r="D53" s="2">
-        <v>-0.74256611990612875</v>
-      </c>
-      <c r="E53" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F53" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G53" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J53" s="2">
-        <v>1</v>
-      </c>
-      <c r="K53" s="2">
-        <v>0.32150339973199221</v>
-      </c>
-      <c r="L53" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>0</v>
-      </c>
-      <c r="B54" s="2">
-        <v>-0.103496419066957</v>
-      </c>
-      <c r="C54" s="2">
-        <v>-5.8888172080470418E-2</v>
-      </c>
-      <c r="D54" s="2">
-        <v>-4.6781006666667783E-2</v>
-      </c>
-      <c r="E54" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F54" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G54" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H54" s="2">
-        <v>-4.2014490254010557</v>
-      </c>
-      <c r="J54" s="2">
-        <v>1</v>
-      </c>
-      <c r="K54" s="2">
-        <v>0.12138765245917831</v>
-      </c>
-      <c r="L54" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>0</v>
-      </c>
-      <c r="B55" s="2">
-        <v>-0.51757550365524363</v>
-      </c>
-      <c r="C55" s="2">
-        <v>-1.099810753387785</v>
-      </c>
-      <c r="D55" s="2">
-        <v>-4.6781006666667783E-2</v>
-      </c>
-      <c r="E55" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F55" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G55" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J55" s="2">
-        <v>0</v>
-      </c>
-      <c r="K55" s="2">
-        <v>0.21116803221457511</v>
-      </c>
-      <c r="L55" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>0</v>
-      </c>
-      <c r="B56" s="2">
-        <v>2.5679815460187632</v>
-      </c>
-      <c r="C56" s="2">
-        <v>0.84985376398147117</v>
-      </c>
-      <c r="D56" s="2">
-        <v>-1.699270650610387</v>
-      </c>
-      <c r="E56" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F56" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G56" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H56" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J56" s="2">
-        <v>1</v>
-      </c>
-      <c r="K56" s="2">
-        <v>0.44917968999573438</v>
-      </c>
-      <c r="L56" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>0</v>
-      </c>
-      <c r="B57" s="2">
-        <v>-9.0139029241528446E-2</v>
-      </c>
-      <c r="C57" s="2">
-        <v>-5.8888172080470418E-2</v>
-      </c>
-      <c r="D57" s="2">
-        <v>-6.8524291455400926E-2</v>
-      </c>
-      <c r="E57" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G57" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H57" s="2">
-        <v>-4.2014490254010557</v>
-      </c>
-      <c r="J57" s="2">
-        <v>0</v>
-      </c>
-      <c r="K57" s="2">
-        <v>0.1234482788709851</v>
-      </c>
-      <c r="L57" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>0</v>
-      </c>
-      <c r="B58" s="2">
-        <v>0.68458958063333031</v>
-      </c>
-      <c r="C58" s="2">
-        <v>-0.47195268847226202</v>
-      </c>
-      <c r="D58" s="2">
-        <v>-1.3296348092019239</v>
-      </c>
-      <c r="E58" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F58" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G58" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J58" s="2">
-        <v>1</v>
-      </c>
-      <c r="K58" s="2">
-        <v>0.40280000228629631</v>
-      </c>
-      <c r="L58" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>0</v>
-      </c>
-      <c r="B59" s="2">
-        <v>0.92502259749104498</v>
-      </c>
-      <c r="C59" s="2">
-        <v>-1.711146237647637</v>
-      </c>
-      <c r="D59" s="2">
-        <v>0.1054219868544643</v>
-      </c>
-      <c r="E59" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F59" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G59" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H59" s="2">
-        <v>-4.2014490254010557</v>
-      </c>
-      <c r="J59" s="2">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2">
-        <v>-5.9197555768042587E-2</v>
-      </c>
-      <c r="L59" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>0</v>
-      </c>
-      <c r="B60" s="2">
-        <v>-1.0652284864978161</v>
-      </c>
-      <c r="C60" s="2">
-        <v>7.3292473164902894E-2</v>
-      </c>
-      <c r="D60" s="2">
-        <v>0.27936826516432961</v>
-      </c>
-      <c r="E60" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F60" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G60" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J60" s="2">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2">
-        <v>0.27684192931668222</v>
-      </c>
-      <c r="L60" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>0</v>
-      </c>
-      <c r="B61" s="2">
-        <v>-0.34392943592467179</v>
-      </c>
-      <c r="C61" s="2">
-        <v>-1.1493784953548001</v>
-      </c>
-      <c r="D61" s="2">
-        <v>-0.19898400018779991</v>
-      </c>
-      <c r="E61" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F61" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G61" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J61" s="2">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2">
-        <v>0.2183947415732195</v>
-      </c>
-      <c r="L61" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>0</v>
-      </c>
-      <c r="B62" s="2">
-        <v>-0.59771984260781519</v>
-      </c>
-      <c r="C62" s="2">
-        <v>-1.4467849471568901</v>
-      </c>
-      <c r="D62" s="2">
-        <v>-1.155688530892059</v>
-      </c>
-      <c r="E62" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F62" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G62" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J62" s="2">
-        <v>0</v>
-      </c>
-      <c r="K62" s="2">
-        <v>0.3288280412219563</v>
-      </c>
-      <c r="L62" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>0</v>
-      </c>
-      <c r="B63" s="2">
-        <v>-1.1453728254503881</v>
-      </c>
-      <c r="C63" s="2">
-        <v>-1.017197850109427</v>
-      </c>
-      <c r="D63" s="2">
-        <v>-1.3296348092019239</v>
-      </c>
-      <c r="E63" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F63" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G63" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J63" s="2">
-        <v>0</v>
-      </c>
-      <c r="K63" s="2">
-        <v>0.40578527703737</v>
-      </c>
-      <c r="L63" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>0</v>
-      </c>
-      <c r="B64" s="2">
-        <v>9.6864428314471937E-2</v>
-      </c>
-      <c r="C64" s="2">
-        <v>0.58549247349072453</v>
-      </c>
-      <c r="D64" s="2">
-        <v>-0.37293027849766508</v>
-      </c>
-      <c r="E64" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F64" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G64" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J64" s="2">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2">
-        <v>0.33736737794298438</v>
-      </c>
-      <c r="L64" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>0</v>
-      </c>
-      <c r="B65" s="2">
-        <v>-0.78472330016381553</v>
-      </c>
-      <c r="C65" s="2">
-        <v>-1.3476494632228599</v>
-      </c>
-      <c r="D65" s="2">
-        <v>0.73597724572772572</v>
-      </c>
-      <c r="E65" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F65" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G65" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J65" s="2">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2">
-        <v>0.1098993771980557</v>
-      </c>
-      <c r="L65" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>0</v>
-      </c>
-      <c r="B66" s="2">
-        <v>0.88495042801475921</v>
-      </c>
-      <c r="C66" s="2">
-        <v>-1.826804302237339</v>
-      </c>
-      <c r="D66" s="2">
-        <v>-0.30770042413146559</v>
-      </c>
-      <c r="E66" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F66" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G66" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H66" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J66" s="2">
-        <v>0</v>
-      </c>
-      <c r="K66" s="2">
-        <v>0.17407351730228121</v>
-      </c>
-      <c r="L66" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>0</v>
-      </c>
-      <c r="B67" s="2">
-        <v>-0.89158241876724431</v>
-      </c>
-      <c r="C67" s="2">
-        <v>0.3046086023443062</v>
-      </c>
-      <c r="D67" s="2">
-        <v>0.1054219868544643</v>
-      </c>
-      <c r="E67" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F67" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G67" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H67" s="2">
-        <v>-4.2014490254010557</v>
-      </c>
-      <c r="J67" s="2">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2">
-        <v>0.16483323480695869</v>
-      </c>
-      <c r="L67" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>0</v>
-      </c>
-      <c r="B68" s="2">
-        <v>-0.54429028330610074</v>
-      </c>
-      <c r="C68" s="2">
-        <v>-9.320430113455425E-3</v>
-      </c>
-      <c r="D68" s="2">
-        <v>-0.8295392590610613</v>
-      </c>
-      <c r="E68" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F68" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G68" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H68" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I68" s="2">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2">
-        <v>1</v>
-      </c>
-      <c r="K68" s="2">
-        <v>0.43085029646051037</v>
-      </c>
-      <c r="L68" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>0</v>
-      </c>
-      <c r="B69" s="2">
-        <v>9.6864428314471937E-2</v>
-      </c>
-      <c r="C69" s="2">
-        <v>0.84985376398147117</v>
-      </c>
-      <c r="D69" s="2">
-        <v>0.67074739136152628</v>
-      </c>
-      <c r="E69" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F69" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G69" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H69" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J69" s="2">
-        <v>0</v>
-      </c>
-      <c r="K69" s="2">
-        <v>0.2728980382923033</v>
-      </c>
-      <c r="L69" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>0</v>
-      </c>
-      <c r="B70" s="2">
-        <v>9.6864428314471937E-2</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1.5603247321753531</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1.779654915586917</v>
-      </c>
-      <c r="E70" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F70" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G70" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H70" s="2">
-        <v>-4.2014490254010557</v>
-      </c>
-      <c r="J70" s="2">
-        <v>0</v>
-      </c>
-      <c r="K70" s="2">
-        <v>-4.1645176879909762E-3</v>
-      </c>
-      <c r="L70" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>0</v>
-      </c>
-      <c r="B71" s="2">
-        <v>-1.0117989271961021</v>
-      </c>
-      <c r="C71" s="2">
-        <v>0.33765376365564947</v>
-      </c>
-      <c r="D71" s="2">
-        <v>0.45331454347419481</v>
-      </c>
-      <c r="E71" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F71" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G71" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H71" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J71" s="2">
-        <v>0</v>
-      </c>
-      <c r="K71" s="2">
-        <v>0.27076594718435298</v>
-      </c>
-      <c r="L71" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>0</v>
-      </c>
-      <c r="B72" s="2">
-        <v>-0.23707031732124301</v>
-      </c>
-      <c r="C72" s="2">
-        <v>-5.8888172080470418E-2</v>
-      </c>
-      <c r="D72" s="2">
-        <v>-0.89476911342726073</v>
-      </c>
-      <c r="E72" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F72" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G72" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H72" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J72" s="2">
-        <v>1</v>
-      </c>
-      <c r="K72" s="2">
-        <v>0.37400896754464552</v>
-      </c>
-      <c r="L72" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>0</v>
-      </c>
-      <c r="B73" s="2">
-        <v>-0.49086072400438641</v>
-      </c>
-      <c r="C73" s="2">
-        <v>-0.2571591399485304</v>
-      </c>
-      <c r="D73" s="2">
-        <v>-1.3296348092019239</v>
-      </c>
-      <c r="E73" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F73" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G73" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H73" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I73" s="2">
-        <v>0</v>
-      </c>
-      <c r="J73" s="2">
-        <v>0</v>
-      </c>
-      <c r="K73" s="2">
-        <v>0.47341428331194563</v>
-      </c>
-      <c r="L73" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>0</v>
-      </c>
-      <c r="B74" s="2">
-        <v>0.44415656377561552</v>
-      </c>
-      <c r="C74" s="2">
-        <v>0.83333118332579947</v>
-      </c>
-      <c r="D74" s="2">
-        <v>1.0186399479812569</v>
-      </c>
-      <c r="E74" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F74" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G74" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H74" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J74" s="2">
-        <v>0</v>
-      </c>
-      <c r="K74" s="2">
-        <v>0.1651704643912964</v>
-      </c>
-      <c r="L74" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>0</v>
-      </c>
-      <c r="B75" s="2">
-        <v>-1.3323762830063881</v>
-      </c>
-      <c r="C75" s="2">
-        <v>-0.42238494650524699</v>
-      </c>
-      <c r="D75" s="2">
-        <v>-0.43816013286386463</v>
-      </c>
-      <c r="E75" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F75" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G75" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H75" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J75" s="2">
-        <v>0</v>
-      </c>
-      <c r="K75" s="2">
-        <v>0.34471990976807282</v>
-      </c>
-      <c r="L75" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>0</v>
-      </c>
-      <c r="B76" s="2">
-        <v>0.53765829255361564</v>
-      </c>
-      <c r="C76" s="2">
-        <v>-1.1493784953548001</v>
-      </c>
-      <c r="D76" s="2">
-        <v>-0.30770042413146559</v>
-      </c>
-      <c r="E76" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F76" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G76" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H76" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J76" s="2">
-        <v>0</v>
-      </c>
-      <c r="K76" s="2">
-        <v>0.1899093965507519</v>
-      </c>
-      <c r="L76" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>0</v>
-      </c>
-      <c r="B77" s="2">
-        <v>0.64451741115704442</v>
-      </c>
-      <c r="C77" s="2">
-        <v>-0.88501720486405366</v>
-      </c>
-      <c r="D77" s="2">
-        <v>-0.13375414582160039</v>
-      </c>
-      <c r="E77" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F77" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G77" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H77" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I77" s="2">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2">
-        <v>0</v>
-      </c>
-      <c r="K77" s="2">
-        <v>0.18128990772455369</v>
-      </c>
-      <c r="L77" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>0</v>
-      </c>
-      <c r="B78" s="2">
-        <v>-0.67786418156038675</v>
-      </c>
-      <c r="C78" s="2">
-        <v>-0.1249784947031571</v>
-      </c>
-      <c r="D78" s="2">
-        <v>0.32285483474179583</v>
-      </c>
-      <c r="E78" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F78" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G78" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H78" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I78" s="2">
-        <v>1</v>
-      </c>
-      <c r="J78" s="2">
-        <v>0</v>
-      </c>
-      <c r="K78" s="2">
-        <v>0.28640209688152601</v>
-      </c>
-      <c r="L78" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>0</v>
-      </c>
-      <c r="B79" s="2">
-        <v>-0.31721465627381462</v>
-      </c>
-      <c r="C79" s="2">
-        <v>-0.53804301109494868</v>
-      </c>
-      <c r="D79" s="2">
-        <v>-0.22072728497653299</v>
-      </c>
-      <c r="E79" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F79" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G79" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H79" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J79" s="2">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2">
-        <v>0.26153594893768939</v>
-      </c>
-      <c r="L79" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>0</v>
-      </c>
-      <c r="B80" s="2">
-        <v>-1.1988023847521021</v>
-      </c>
-      <c r="C80" s="2">
-        <v>-1.3476494632228599</v>
-      </c>
-      <c r="D80" s="2">
-        <v>0.27936826516432961</v>
-      </c>
-      <c r="E80" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F80" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G80" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H80" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I80" s="2">
-        <v>1</v>
-      </c>
-      <c r="J80" s="2">
-        <v>0</v>
-      </c>
-      <c r="K80" s="2">
-        <v>0.1862381188662949</v>
-      </c>
-      <c r="L80" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>0</v>
-      </c>
-      <c r="B81" s="2">
-        <v>-0.103496419066957</v>
-      </c>
-      <c r="C81" s="2">
-        <v>-0.6537010756846503</v>
-      </c>
-      <c r="D81" s="2">
-        <v>-0.89476911342726073</v>
-      </c>
-      <c r="E81" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F81" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G81" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H81" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J81" s="2">
-        <v>1</v>
-      </c>
-      <c r="K81" s="2">
-        <v>0.32706121501157598</v>
-      </c>
-      <c r="L81" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>0</v>
-      </c>
-      <c r="B82" s="2">
-        <v>0.31058266552132952</v>
-      </c>
-      <c r="C82" s="2">
-        <v>-0.6537010756846503</v>
-      </c>
-      <c r="D82" s="2">
-        <v>-0.78605268948359497</v>
-      </c>
-      <c r="E82" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F82" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G82" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H82" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J82" s="2">
-        <v>0</v>
-      </c>
-      <c r="K82" s="2">
-        <v>0.34078978190646231</v>
-      </c>
-      <c r="L82" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>0</v>
-      </c>
-      <c r="B83" s="2">
-        <v>0.72466175010961609</v>
-      </c>
-      <c r="C83" s="2">
-        <v>0.98203440922684448</v>
-      </c>
-      <c r="D83" s="2">
-        <v>2.779846015868642</v>
-      </c>
-      <c r="E83" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F83" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G83" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H83" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J83" s="2">
-        <v>0</v>
-      </c>
-      <c r="K83" s="2">
-        <v>-5.645244920911352E-2</v>
-      </c>
-      <c r="L83" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>0</v>
-      </c>
-      <c r="B84" s="2">
-        <v>-0.46414594435352918</v>
-      </c>
-      <c r="C84" s="2">
-        <v>-0.68674623699599369</v>
-      </c>
-      <c r="D84" s="2">
-        <v>0.12716527164319749</v>
-      </c>
-      <c r="E84" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F84" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G84" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H84" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J84" s="2">
-        <v>0</v>
-      </c>
-      <c r="K84" s="2">
-        <v>0.21523929653184509</v>
-      </c>
-      <c r="L84" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>0</v>
-      </c>
-      <c r="B85" s="2">
-        <v>-0.23707031732124301</v>
-      </c>
-      <c r="C85" s="2">
-        <v>-1.5624430117465919</v>
-      </c>
-      <c r="D85" s="2">
-        <v>8.367870206573115E-2</v>
-      </c>
-      <c r="E85" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F85" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G85" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H85" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J85" s="2">
-        <v>1</v>
-      </c>
-      <c r="K85" s="2">
-        <v>0.19698965158232859</v>
-      </c>
-      <c r="L85" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>0</v>
-      </c>
-      <c r="B86" s="2">
-        <v>-0.86486763911638709</v>
-      </c>
-      <c r="C86" s="2">
-        <v>-0.2571591399485304</v>
-      </c>
-      <c r="D86" s="2">
-        <v>-0.37293027849766508</v>
-      </c>
-      <c r="E86" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F86" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G86" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H86" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J86" s="2">
-        <v>1</v>
-      </c>
-      <c r="K86" s="2">
-        <v>0.37257269441697061</v>
-      </c>
-      <c r="L86" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>0</v>
-      </c>
-      <c r="B87" s="2">
-        <v>0.51094351290275852</v>
-      </c>
-      <c r="C87" s="2">
-        <v>-2.2729139799404741</v>
-      </c>
-      <c r="D87" s="2">
-        <v>-0.43816013286386463</v>
-      </c>
-      <c r="E87" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F87" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G87" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H87" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I87" s="2">
-        <v>0</v>
-      </c>
-      <c r="J87" s="2">
-        <v>0</v>
-      </c>
-      <c r="K87" s="2">
-        <v>0.1306920841234695</v>
-      </c>
-      <c r="L87" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>0</v>
-      </c>
-      <c r="B88" s="2">
-        <v>-1.2789467237046741</v>
-      </c>
-      <c r="C88" s="2">
-        <v>8.9815053820574559E-2</v>
-      </c>
-      <c r="D88" s="2">
-        <v>-2.2863393399061831</v>
-      </c>
-      <c r="E88" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F88" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G88" s="2">
-        <v>4.2014490254010557</v>
-      </c>
-      <c r="H88" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J88" s="2">
-        <v>1</v>
-      </c>
-      <c r="K88" s="2">
-        <v>0.84826571655076033</v>
-      </c>
-      <c r="L88" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>0</v>
-      </c>
-      <c r="B89" s="2">
-        <v>1.1387408346979031</v>
-      </c>
-      <c r="C89" s="2">
-        <v>1.444666667585651</v>
-      </c>
-      <c r="D89" s="2">
-        <v>1.692681776431985</v>
-      </c>
-      <c r="E89" s="2">
-        <v>3.20772094861921</v>
-      </c>
-      <c r="F89" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G89" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H89" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J89" s="2">
-        <v>1</v>
-      </c>
-      <c r="K89" s="2">
-        <v>0.2964933126375528</v>
-      </c>
-      <c r="L89" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>0</v>
-      </c>
-      <c r="B90" s="2">
-        <v>0.15029398761618629</v>
-      </c>
-      <c r="C90" s="2">
-        <v>-1.826804302237339</v>
-      </c>
-      <c r="D90" s="2">
-        <v>-1.9601900680751849</v>
-      </c>
-      <c r="E90" s="2">
-        <v>3.20772094861921</v>
-      </c>
-      <c r="F90" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G90" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H90" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J90" s="2">
-        <v>1</v>
-      </c>
-      <c r="K90" s="2">
-        <v>0.52639802371024258</v>
-      </c>
-      <c r="L90" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>0</v>
-      </c>
-      <c r="B91" s="2">
-        <v>-1.893386655674389</v>
-      </c>
-      <c r="C91" s="2">
-        <v>-9.320430113455425E-3</v>
-      </c>
-      <c r="D91" s="2">
-        <v>-1.0252288221596599</v>
-      </c>
-      <c r="E91" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F91" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G91" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H91" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J91" s="2">
-        <v>1</v>
-      </c>
-      <c r="K91" s="2">
-        <v>0.47241910904942719</v>
-      </c>
-      <c r="L91" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>0</v>
-      </c>
-      <c r="B92" s="2">
-        <v>-1.0117989271961021</v>
-      </c>
-      <c r="C92" s="2">
-        <v>0.58549247349072453</v>
-      </c>
-      <c r="D92" s="2">
-        <v>0.75772053051645893</v>
-      </c>
-      <c r="E92" s="2">
-        <v>3.20772094861921</v>
-      </c>
-      <c r="F92" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G92" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H92" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I92" s="2">
-        <v>0</v>
-      </c>
-      <c r="J92" s="2">
-        <v>0</v>
-      </c>
-      <c r="K92" s="2">
-        <v>0.4561905546904329</v>
-      </c>
-      <c r="L92" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>0</v>
-      </c>
-      <c r="B93" s="2">
-        <v>-1.1988023847521021</v>
-      </c>
-      <c r="C93" s="2">
-        <v>-1.3476494632228599</v>
-      </c>
-      <c r="D93" s="2">
-        <v>-0.6555929807511961</v>
-      </c>
-      <c r="E93" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F93" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G93" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H93" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J93" s="2">
-        <v>1</v>
-      </c>
-      <c r="K93" s="2">
-        <v>0.30218775153307859</v>
-      </c>
-      <c r="L93" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>0</v>
-      </c>
-      <c r="B94" s="2">
-        <v>0.99180954661818799</v>
-      </c>
-      <c r="C94" s="2">
-        <v>0.73419569939176943</v>
-      </c>
-      <c r="D94" s="2">
-        <v>0.21413841079813009</v>
-      </c>
-      <c r="E94" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F94" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G94" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H94" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J94" s="2">
-        <v>0</v>
-      </c>
-      <c r="K94" s="2">
-        <v>0.27902856316662028</v>
-      </c>
-      <c r="L94" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>0</v>
-      </c>
-      <c r="B95" s="2">
-        <v>-0.43743116470267202</v>
-      </c>
-      <c r="C95" s="2">
-        <v>4.0247311853559571E-2</v>
-      </c>
-      <c r="D95" s="2">
-        <v>0.54028768262912741</v>
-      </c>
-      <c r="E95" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F95" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G95" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H95" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J95" s="2">
-        <v>1</v>
-      </c>
-      <c r="K95" s="2">
-        <v>0.25926600418370782</v>
-      </c>
-      <c r="L95" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>0</v>
-      </c>
-      <c r="B96" s="2">
-        <v>0.72466175010961609</v>
-      </c>
-      <c r="C96" s="2">
-        <v>-0.15802365601450041</v>
-      </c>
-      <c r="D96" s="2">
-        <v>1.3665325046009871</v>
-      </c>
-      <c r="E96" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F96" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G96" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H96" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J96" s="2">
-        <v>0</v>
-      </c>
-      <c r="K96" s="2">
-        <v>4.1024695220104657E-2</v>
-      </c>
-      <c r="L96" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>0</v>
-      </c>
-      <c r="B97" s="2">
-        <v>0.2304383265687579</v>
-      </c>
-      <c r="C97" s="2">
-        <v>0.35417634431132122</v>
-      </c>
-      <c r="D97" s="2">
-        <v>-0.63384969596246288</v>
-      </c>
-      <c r="E97" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F97" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G97" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H97" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J97" s="2">
-        <v>0</v>
-      </c>
-      <c r="K97" s="2">
-        <v>0.34758204264333498</v>
-      </c>
-      <c r="L97" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>0</v>
-      </c>
-      <c r="B98" s="2">
-        <v>0.64451741115704442</v>
-      </c>
-      <c r="C98" s="2">
-        <v>0.98203440922684448</v>
-      </c>
-      <c r="D98" s="2">
-        <v>0.45331454347419481</v>
-      </c>
-      <c r="E98" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F98" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G98" s="2">
-        <v>4.2014490254010557</v>
-      </c>
-      <c r="H98" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I98" s="2">
-        <v>0</v>
-      </c>
-      <c r="J98" s="2">
-        <v>1</v>
-      </c>
-      <c r="K98" s="2">
-        <v>0.47782356552454441</v>
-      </c>
-      <c r="L98" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>0</v>
-      </c>
-      <c r="B99" s="2">
-        <v>0.67123219080790164</v>
-      </c>
-      <c r="C99" s="2">
-        <v>8.9815053820574559E-2</v>
-      </c>
-      <c r="D99" s="2">
-        <v>0.38808468910799532</v>
-      </c>
-      <c r="E99" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F99" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G99" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H99" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J99" s="2">
-        <v>0</v>
-      </c>
-      <c r="K99" s="2">
-        <v>0.18182291816730409</v>
-      </c>
-      <c r="L99" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>0</v>
-      </c>
-      <c r="B100" s="2">
-        <v>0.2304383265687579</v>
-      </c>
-      <c r="C100" s="2">
-        <v>-1.24851397928883</v>
-      </c>
-      <c r="D100" s="2">
-        <v>6.1935417276997987E-2</v>
-      </c>
-      <c r="E100" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F100" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G100" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H100" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J100" s="2">
-        <v>0</v>
-      </c>
-      <c r="K100" s="2">
-        <v>0.15192917662444019</v>
-      </c>
-      <c r="L100" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>0</v>
-      </c>
-      <c r="B101" s="2">
-        <v>0.64451741115704442</v>
-      </c>
-      <c r="C101" s="2">
-        <v>-0.1249784947031571</v>
-      </c>
-      <c r="D101" s="2">
-        <v>-4.6781006666667783E-2</v>
-      </c>
-      <c r="E101" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F101" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G101" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H101" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J101" s="2">
-        <v>0</v>
-      </c>
-      <c r="K101" s="2">
-        <v>0.22236759945918719</v>
-      </c>
-      <c r="L101" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>0</v>
-      </c>
-      <c r="B102" s="2">
-        <v>1.1387408346979031</v>
-      </c>
-      <c r="C102" s="2">
-        <v>-0.47195268847226202</v>
-      </c>
-      <c r="D102" s="2">
-        <v>0.49680111305166108</v>
-      </c>
-      <c r="E102" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F102" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G102" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H102" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J102" s="2">
-        <v>0</v>
-      </c>
-      <c r="K102" s="2">
-        <v>0.1546739362253908</v>
-      </c>
-      <c r="L102" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>0</v>
-      </c>
-      <c r="B103" s="2">
-        <v>1.1387408346979031</v>
-      </c>
-      <c r="C103" s="2">
-        <v>-0.75283655961868035</v>
-      </c>
-      <c r="D103" s="2">
-        <v>-0.43816013286386463</v>
-      </c>
-      <c r="E103" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F103" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G103" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H103" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J103" s="2">
-        <v>0</v>
-      </c>
-      <c r="K103" s="2">
-        <v>0.20453328862196851</v>
-      </c>
-      <c r="L103" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>0</v>
-      </c>
-      <c r="B104" s="2">
-        <v>-0.2904998766229574</v>
-      </c>
-      <c r="C104" s="2">
-        <v>1.3124860223402779</v>
-      </c>
-      <c r="D104" s="2">
-        <v>-1.0252288221596599</v>
-      </c>
-      <c r="E104" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F104" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G104" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H104" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I104" s="2">
-        <v>0</v>
-      </c>
-      <c r="J104" s="2">
-        <v>0</v>
-      </c>
-      <c r="K104" s="2">
-        <v>0.53323491365075937</v>
-      </c>
-      <c r="L104" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>0</v>
-      </c>
-      <c r="B105" s="2">
-        <v>-1.6930258082929599</v>
-      </c>
-      <c r="C105" s="2">
-        <v>-0.88501720486405366</v>
-      </c>
-      <c r="D105" s="2">
-        <v>-0.89476911342726073</v>
-      </c>
-      <c r="E105" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F105" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G105" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H105" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="I105" s="2">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2">
-        <v>1</v>
-      </c>
-      <c r="K105" s="2">
-        <v>0.386945933565912</v>
-      </c>
-      <c r="L105" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>0</v>
-      </c>
-      <c r="B106" s="2">
-        <v>-1.1988023847521021</v>
-      </c>
-      <c r="C106" s="2">
-        <v>-0.57108817240629206</v>
-      </c>
-      <c r="D106" s="2">
-        <v>-1.568810941877989</v>
-      </c>
-      <c r="E106" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F106" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G106" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H106" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J106" s="2">
-        <v>1</v>
-      </c>
-      <c r="K106" s="2">
-        <v>0.51535531621679198</v>
-      </c>
-      <c r="L106" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>0</v>
-      </c>
-      <c r="B107" s="2">
-        <v>-7.6781639416099848E-2</v>
-      </c>
-      <c r="C107" s="2">
-        <v>-2.008552689449727</v>
-      </c>
-      <c r="D107" s="2">
-        <v>-2.003676637652652</v>
-      </c>
-      <c r="E107" s="2">
-        <v>3.20772094861921</v>
-      </c>
-      <c r="F107" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G107" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H107" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J107" s="2">
-        <v>0</v>
-      </c>
-      <c r="K107" s="2">
-        <v>0.53019874322466798</v>
-      </c>
-      <c r="L107" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>0</v>
-      </c>
-      <c r="B108" s="2">
-        <v>-0.65114940190952952</v>
-      </c>
-      <c r="C108" s="2">
-        <v>0.71767311873609785</v>
-      </c>
-      <c r="D108" s="2">
-        <v>1.1708429415023891</v>
-      </c>
-      <c r="E108" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F108" s="2">
-        <v>-0.81016705460704608</v>
-      </c>
-      <c r="G108" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
-      <c r="H108" s="2">
-        <v>0.23801312212863099</v>
-      </c>
-      <c r="J108" s="2">
-        <v>0</v>
-      </c>
-      <c r="K108" s="2">
-        <v>0.190544527224559</v>
-      </c>
-      <c r="L108" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>0</v>
-      </c>
-      <c r="B109" s="2">
-        <v>-1.0117989271961021</v>
-      </c>
-      <c r="C109" s="2">
-        <v>0.66810537676908277</v>
-      </c>
-      <c r="D109" s="2">
-        <v>1.410019074178454</v>
-      </c>
-      <c r="E109" s="2">
-        <v>-0.31174781597833762</v>
-      </c>
-      <c r="F109" s="2">
-        <v>1.234313336136617</v>
-      </c>
-      <c r="G109" s="2">
-        <v>-0.23801312212863121</v>
-      </c>
       <c r="H109" s="2">
-        <v>-4.2014490254010557</v>
+        <v>0</v>
       </c>
       <c r="I109" s="2">
         <v>0</v>
       </c>
       <c r="J109" s="2">
-        <v>0</v>
-      </c>
-      <c r="K109" s="2">
         <v>3.3570319961853001E-2</v>
       </c>
-      <c r="L109" s="2" t="b">
+      <c r="K109" s="2" t="b">
         <v>0</v>
       </c>
     </row>
